--- a/xlsx/太字节_intext.xlsx
+++ b/xlsx/太字节_intext.xlsx
@@ -29,7 +29,7 @@
     <t>字节</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_太字节</t>
+    <t>政策_政策_维基百科_太字节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8D%95%E4%BD%8D%E5%88%B6%E8%AF%8D%E5%A4%B4</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>港澳地區</t>
+    <t>港澳地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%BD%8D</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%A4%A7%E5%B0%8F%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>檔案大小轉換</t>
+    <t>档案大小转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Compu-stub</t>
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -852,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -910,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -1113,7 +1113,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1171,7 +1171,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
